--- a/docs/ValueSet-FollowUpVs.xlsx
+++ b/docs/ValueSet-FollowUpVs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T20:38:23+02:00</t>
+    <t>2025-05-05T10:23:37+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-FollowUpVs.xlsx
+++ b/docs/ValueSet-FollowUpVs.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Follow Up</t>
+    <t>Follow Upvs</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T10:23:37+02:00</t>
+    <t>2025-05-11T16:39:14+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://www.snomed.org/what-is-snomed-ct</t>
+    <t>http://snomed.info/sct</t>
   </si>
 </sst>
 </file>

--- a/docs/ValueSet-FollowUpVs.xlsx
+++ b/docs/ValueSet-FollowUpVs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-11T16:39:14+02:00</t>
+    <t>2025-06-02T21:24:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-FollowUpVs.xlsx
+++ b/docs/ValueSet-FollowUpVs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-02T21:24:52+02:00</t>
+    <t>2025-06-02T21:28:26+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
